--- a/outputFile/rplm4.xlsx
+++ b/outputFile/rplm4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>rplm_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>rplm_2</t>
+          <t>rplm_only</t>
         </is>
       </c>
     </row>
@@ -451,12 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.5777777777777777, 15], [0.5641025641025642, 11], [0.5882352941176471, 7]]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[[0.5882352941176471, 7], [0.42857142857142855, 5], [0.16666666666666666, 5]]</t>
+          <t>[[0.6521739130434783, 14], [0.6666666666666667, 9], [0.6060606060606061, 6]]</t>
         </is>
       </c>
     </row>
@@ -466,12 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.5641025641025642, 11], [0.48484848484848486, 8], [0.41379310344827586, 6]]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[[0.45161290322580644, 7], [0.4, 3], [0.1, 2]]</t>
+          <t>[[0.5945945945945946, 9], [0.5333333333333333, 5], [0.3333333333333333, 3]]</t>
         </is>
       </c>
     </row>
@@ -481,12 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.5945945945945946, 9], [0.5, 4], [0.31999999999999995, 4]]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[[0.46153846153846156, 3], [0.1, 2], [0, 1]]</t>
+          <t>[[0.5185185185185185, 3], [0.3636363636363636, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
